--- a/HW2/USArrests_solution.xlsx
+++ b/HW2/USArrests_solution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,10 +14,6 @@
     <sheet name="state_wise murder rate" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="assault histogram" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="false" name="_xlchart.v1.0" vbProcedure="false">in!$C$1</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.1" vbProcedure="false">in!$C$2:$C$51</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -206,7 +202,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -249,7 +245,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
     </font>
@@ -322,7 +324,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -334,7 +336,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -368,7 +370,7 @@
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -381,7 +383,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -393,7 +395,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="en-IN" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -401,7 +403,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr b="0" lang="en-IN" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -852,11 +854,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="89708851"/>
-        <c:axId val="37143142"/>
+        <c:axId val="97795088"/>
+        <c:axId val="74081766"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89708851"/>
+        <c:axId val="97795088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +890,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37143142"/>
+        <c:crossAx val="74081766"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -896,7 +898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37143142"/>
+        <c:axId val="74081766"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,7 +937,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89708851"/>
+        <c:crossAx val="97795088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -987,7 +989,584 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>in!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Murder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>in!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>in!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Assault</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>in!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>169.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="50086643"/>
+        <c:axId val="60636942"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50086643"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60636942"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60636942"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50086643"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -999,7 +1578,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="en-IN" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1007,7 +1586,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr b="0" lang="en-IN" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1404,11 +1983,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="62395757"/>
-        <c:axId val="39247061"/>
+        <c:axId val="71643460"/>
+        <c:axId val="98503531"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62395757"/>
+        <c:axId val="71643460"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,7 +2019,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39247061"/>
+        <c:crossAx val="98503531"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1448,7 +2027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39247061"/>
+        <c:axId val="98503531"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +2066,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62395757"/>
+        <c:crossAx val="71643460"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1549,10 +2128,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>313560</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601920</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1561,11 +2140,41 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="10117800" cy="6238080"/>
+        <a:ext cx="8551440" cy="5076360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38880</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>335520</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>128880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Scatter plot for murder and assault"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="38880" y="5544360"/>
+        <a:ext cx="10080720" cy="6105960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1585,18 +2194,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>378720</xdr:colOff>
+      <xdr:colOff>378360</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="12021120" cy="4885920"/>
+        <a:ext cx="11996640" cy="4695120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1620,19 +2229,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name="Rectangle 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="612720" y="190440"/>
-          <a:ext cx="4593600" cy="2742480"/>
+          <a:off x="611280" y="182880"/>
+          <a:ext cx="4584600" cy="2635560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1664,6 +2273,9 @@
           </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>This chart isn't available in your version of Excel.</a:t>
@@ -1690,6 +2302,9 @@
           </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-IN" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Editing this shape or saving this workbook in a different file format will permanently break the chart.</a:t>
@@ -1712,19 +2327,19 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +2353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1753,7 +2368,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
@@ -1767,7 +2382,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
@@ -1781,7 +2396,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +2410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
@@ -1809,7 +2424,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
@@ -1823,7 +2438,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>10</v>
       </c>
@@ -1837,7 +2452,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>11</v>
       </c>
@@ -1851,7 +2466,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
@@ -1865,7 +2480,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>13</v>
       </c>
@@ -1879,7 +2494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>14</v>
       </c>
@@ -1893,7 +2508,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>15</v>
       </c>
@@ -1907,7 +2522,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>16</v>
       </c>
@@ -1921,7 +2536,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>17</v>
       </c>
@@ -1935,7 +2550,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>18</v>
       </c>
@@ -1949,7 +2564,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>19</v>
       </c>
@@ -1963,7 +2578,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>20</v>
       </c>
@@ -1977,7 +2592,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>21</v>
       </c>
@@ -1991,7 +2606,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>22</v>
       </c>
@@ -2005,7 +2620,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>23</v>
       </c>
@@ -2019,7 +2634,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>24</v>
       </c>
@@ -2033,7 +2648,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>25</v>
       </c>
@@ -2047,7 +2662,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>26</v>
       </c>
@@ -2061,7 +2676,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>27</v>
       </c>
@@ -2075,7 +2690,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>28</v>
       </c>
@@ -2089,7 +2704,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>29</v>
       </c>
@@ -2103,7 +2718,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>30</v>
       </c>
@@ -2117,7 +2732,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>31</v>
       </c>
@@ -2131,7 +2746,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>32</v>
       </c>
@@ -2145,7 +2760,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>33</v>
       </c>
@@ -2159,7 +2774,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>34</v>
       </c>
@@ -2173,7 +2788,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>35</v>
       </c>
@@ -2187,7 +2802,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>36</v>
       </c>
@@ -2201,7 +2816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>37</v>
       </c>
@@ -2215,7 +2830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>38</v>
       </c>
@@ -2229,7 +2844,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>39</v>
       </c>
@@ -2243,7 +2858,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>40</v>
       </c>
@@ -2257,7 +2872,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>41</v>
       </c>
@@ -2271,7 +2886,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>42</v>
       </c>
@@ -2285,7 +2900,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>43</v>
       </c>
@@ -2299,7 +2914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>44</v>
       </c>
@@ -2313,7 +2928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>45</v>
       </c>
@@ -2327,7 +2942,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>46</v>
       </c>
@@ -2341,7 +2956,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>47</v>
       </c>
@@ -2355,7 +2970,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>48</v>
       </c>
@@ -2369,7 +2984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>49</v>
       </c>
@@ -2383,7 +2998,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>50</v>
       </c>
@@ -2397,7 +3012,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>51</v>
       </c>
@@ -2411,7 +3026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>52</v>
       </c>
@@ -2425,7 +3040,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>53</v>
       </c>
@@ -2458,16 +3073,16 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="74.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="74.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2487,7 +3102,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -2509,7 +3124,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
@@ -2531,7 +3146,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
@@ -2553,7 +3168,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
@@ -2575,7 +3190,7 @@
         <v>more</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
@@ -2597,7 +3212,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
@@ -2619,7 +3234,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>10</v>
       </c>
@@ -2641,7 +3256,7 @@
         <v>less</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>11</v>
       </c>
@@ -2663,7 +3278,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
@@ -2685,7 +3300,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>13</v>
       </c>
@@ -2707,7 +3322,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>14</v>
       </c>
@@ -2729,7 +3344,7 @@
         <v>less</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>15</v>
       </c>
@@ -2751,7 +3366,7 @@
         <v>less</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>16</v>
       </c>
@@ -2773,7 +3388,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>17</v>
       </c>
@@ -2795,7 +3410,7 @@
         <v>less</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>18</v>
       </c>
@@ -2817,7 +3432,7 @@
         <v>least</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>19</v>
       </c>
@@ -2839,7 +3454,7 @@
         <v>less</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>20</v>
       </c>
@@ -2861,7 +3476,7 @@
         <v>less</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>21</v>
       </c>
@@ -2883,7 +3498,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>22</v>
       </c>
@@ -2905,7 +3520,7 @@
         <v>least</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>23</v>
       </c>
@@ -2927,7 +3542,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>24</v>
       </c>
@@ -2949,7 +3564,7 @@
         <v>less</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>25</v>
       </c>
@@ -2971,7 +3586,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>26</v>
       </c>
@@ -2993,7 +3608,7 @@
         <v>least</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>27</v>
       </c>
@@ -3015,7 +3630,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>28</v>
       </c>
@@ -3037,7 +3652,7 @@
         <v>more</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>29</v>
       </c>
@@ -3059,7 +3674,7 @@
         <v>less</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>30</v>
       </c>
@@ -3081,7 +3696,7 @@
         <v>less</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>31</v>
       </c>
@@ -3103,7 +3718,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>32</v>
       </c>
@@ -3125,7 +3740,7 @@
         <v>least</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>33</v>
       </c>
@@ -3147,7 +3762,7 @@
         <v>more</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>34</v>
       </c>
@@ -3169,7 +3784,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>35</v>
       </c>
@@ -3191,7 +3806,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>36</v>
       </c>
@@ -3213,7 +3828,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>37</v>
       </c>
@@ -3235,7 +3850,7 @@
         <v>least</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>38</v>
       </c>
@@ -3257,7 +3872,7 @@
         <v>less</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>39</v>
       </c>
@@ -3279,7 +3894,7 @@
         <v>more</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>40</v>
       </c>
@@ -3301,7 +3916,7 @@
         <v>more</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>41</v>
       </c>
@@ -3323,7 +3938,7 @@
         <v>less</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>42</v>
       </c>
@@ -3345,7 +3960,7 @@
         <v>more</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>43</v>
       </c>
@@ -3367,7 +3982,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>44</v>
       </c>
@@ -3389,7 +4004,7 @@
         <v>least</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>45</v>
       </c>
@@ -3411,7 +4026,7 @@
         <v>more</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>46</v>
       </c>
@@ -3433,7 +4048,7 @@
         <v>most</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>47</v>
       </c>
@@ -3455,7 +4070,7 @@
         <v>less</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>48</v>
       </c>
@@ -3477,7 +4092,7 @@
         <v>least</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>49</v>
       </c>
@@ -3499,7 +4114,7 @@
         <v>more</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>50</v>
       </c>
@@ -3521,7 +4136,7 @@
         <v>less</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>51</v>
       </c>
@@ -3543,7 +4158,7 @@
         <v>less</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>52</v>
       </c>
@@ -3565,7 +4180,7 @@
         <v>least</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>53</v>
       </c>
@@ -3605,11 +4220,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W31" activeCellId="0" sqref="W31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3633,7 +4248,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3657,7 +4272,7 @@
       <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
